--- a/models/polling/parameters.xlsx
+++ b/models/polling/parameters.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Prob. station 1 served within T=16 time units</t>
+  </si>
+  <si>
+    <t>enabled</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -457,44 +460,59 @@
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
